--- a/dic_skrt_pt.xlsx
+++ b/dic_skrt_pt.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pmeir\Documents\2 - OpenBharata\1 - WEBSITE\0 - site dicionário\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pmeir\Documents\2-OpenBharata\0 - WEBSITE\0 - site dicionário\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98FD1D67-7D7E-4059-A2BE-54D516368836}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45532F03-B036-4F1D-93FD-8076C6C40583}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6941" uniqueCount="3939">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7002" uniqueCount="3963">
   <si>
     <t>Devan.</t>
   </si>
@@ -11848,13 +11848,85 @@
   </si>
   <si>
     <t>a.</t>
+  </si>
+  <si>
+    <t>ayurveda</t>
+  </si>
+  <si>
+    <t>māṁsa</t>
+  </si>
+  <si>
+    <t>músculo</t>
+  </si>
+  <si>
+    <t>Vermes intestinais</t>
+  </si>
+  <si>
+    <t>अर्दित</t>
+  </si>
+  <si>
+    <t>ardita</t>
+  </si>
+  <si>
+    <t>Paralisia facial</t>
+  </si>
+  <si>
+    <t>रोग</t>
+  </si>
+  <si>
+    <t>roga</t>
+  </si>
+  <si>
+    <t>doença</t>
+  </si>
+  <si>
+    <t>अतिसार</t>
+  </si>
+  <si>
+    <t>atisāra</t>
+  </si>
+  <si>
+    <t>Diarreia</t>
+  </si>
+  <si>
+    <t>वातरक्त</t>
+  </si>
+  <si>
+    <t>vātarakta</t>
+  </si>
+  <si>
+    <t>Gota</t>
+  </si>
+  <si>
+    <t>पाण्डु</t>
+  </si>
+  <si>
+    <t>pāṇḍu</t>
+  </si>
+  <si>
+    <t>anemia</t>
+  </si>
+  <si>
+    <t>Febre</t>
+  </si>
+  <si>
+    <t>कास</t>
+  </si>
+  <si>
+    <t>kāsa</t>
+  </si>
+  <si>
+    <t>Tosse</t>
+  </si>
+  <si>
+    <t>Sim</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="17" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -11947,11 +12019,6 @@
       <name val="Verdana"/>
       <family val="2"/>
     </font>
-    <font>
-      <sz val="14"/>
-      <color rgb="FFFF0000"/>
-      <name val="Sanskrit 2003"/>
-    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -11975,7 +12042,7 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -12006,9 +12073,6 @@
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hiperligação 2" xfId="2" xr:uid="{D2296A42-8A0B-43B9-99EB-BAE2ED1168F5}"/>
@@ -12229,20 +12293,20 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:F1389"/>
+  <dimension ref="A1:F1398"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:D1388"/>
+      <selection activeCell="F1389" sqref="F1389:F1398"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="20.88671875" customWidth="1"/>
     <col min="2" max="2" width="28.6640625" customWidth="1"/>
-    <col min="5" max="5" width="61.77734375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -12258,8 +12322,11 @@
       <c r="E1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F1" s="1" t="s">
+        <v>3939</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>808</v>
       </c>
@@ -12276,7 +12343,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>7</v>
       </c>
@@ -12293,7 +12360,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>10</v>
       </c>
@@ -12310,7 +12377,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>13</v>
       </c>
@@ -12327,7 +12394,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>805</v>
       </c>
@@ -12344,7 +12411,7 @@
         <v>788</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>16</v>
       </c>
@@ -12361,7 +12428,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>809</v>
       </c>
@@ -12378,7 +12445,7 @@
         <v>789</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>19</v>
       </c>
@@ -12395,7 +12462,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
         <v>790</v>
       </c>
@@ -12412,7 +12479,7 @@
         <v>792</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>22</v>
       </c>
@@ -12429,7 +12496,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>25</v>
       </c>
@@ -12446,7 +12513,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
         <v>795</v>
       </c>
@@ -12463,7 +12530,7 @@
         <v>794</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>28</v>
       </c>
@@ -12480,7 +12547,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>31</v>
       </c>
@@ -12497,7 +12564,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>34</v>
       </c>
@@ -35890,7 +35957,7 @@
         <v>3874</v>
       </c>
     </row>
-    <row r="1377" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.9">
+    <row r="1377" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.9">
       <c r="A1377" s="10" t="s">
         <v>3875</v>
       </c>
@@ -35907,7 +35974,7 @@
         <v>3877</v>
       </c>
     </row>
-    <row r="1378" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.9">
+    <row r="1378" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.9">
       <c r="A1378" s="10" t="s">
         <v>3878</v>
       </c>
@@ -35924,7 +35991,7 @@
         <v>1692</v>
       </c>
     </row>
-    <row r="1379" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.9">
+    <row r="1379" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.9">
       <c r="A1379" s="10" t="s">
         <v>3880</v>
       </c>
@@ -35941,7 +36008,7 @@
         <v>2399</v>
       </c>
     </row>
-    <row r="1380" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.9">
+    <row r="1380" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.9">
       <c r="A1380" s="10" t="s">
         <v>3882</v>
       </c>
@@ -35958,7 +36025,7 @@
         <v>3884</v>
       </c>
     </row>
-    <row r="1381" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.9">
+    <row r="1381" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.9">
       <c r="A1381" s="10" t="s">
         <v>3885</v>
       </c>
@@ -35975,7 +36042,7 @@
         <v>3887</v>
       </c>
     </row>
-    <row r="1382" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.9">
+    <row r="1382" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.9">
       <c r="A1382" s="10" t="s">
         <v>1393</v>
       </c>
@@ -35992,7 +36059,7 @@
         <v>1395</v>
       </c>
     </row>
-    <row r="1383" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.9">
+    <row r="1383" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.9">
       <c r="A1383" s="10" t="s">
         <v>1407</v>
       </c>
@@ -36009,7 +36076,7 @@
         <v>1409</v>
       </c>
     </row>
-    <row r="1384" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.9">
+    <row r="1384" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.9">
       <c r="A1384" s="10" t="s">
         <v>1401</v>
       </c>
@@ -36026,7 +36093,7 @@
         <v>1403</v>
       </c>
     </row>
-    <row r="1385" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.9">
+    <row r="1385" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.9">
       <c r="A1385" s="10" t="s">
         <v>3888</v>
       </c>
@@ -36043,7 +36110,7 @@
         <v>1389</v>
       </c>
     </row>
-    <row r="1386" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.9">
+    <row r="1386" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.9">
       <c r="A1386" s="10" t="s">
         <v>3890</v>
       </c>
@@ -36060,7 +36127,7 @@
         <v>3892</v>
       </c>
     </row>
-    <row r="1387" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.9">
+    <row r="1387" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.9">
       <c r="A1387" s="10" t="s">
         <v>3893</v>
       </c>
@@ -36077,7 +36144,7 @@
         <v>3895</v>
       </c>
     </row>
-    <row r="1388" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.9">
+    <row r="1388" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.9">
       <c r="A1388" s="10" t="s">
         <v>3896</v>
       </c>
@@ -36094,8 +36161,205 @@
         <v>3898</v>
       </c>
     </row>
-    <row r="1389" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1389" s="18"/>
+    <row r="1389" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.9">
+      <c r="A1389" s="10" t="s">
+        <v>423</v>
+      </c>
+      <c r="B1389" s="11" t="s">
+        <v>424</v>
+      </c>
+      <c r="C1389" s="12" t="s">
+        <v>198</v>
+      </c>
+      <c r="D1389" s="1" t="s">
+        <v>3938</v>
+      </c>
+      <c r="E1389" s="14" t="s">
+        <v>425</v>
+      </c>
+      <c r="F1389" s="14" t="s">
+        <v>3962</v>
+      </c>
+    </row>
+    <row r="1390" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.9">
+      <c r="A1390" s="10" t="s">
+        <v>444</v>
+      </c>
+      <c r="B1390" s="11" t="s">
+        <v>3940</v>
+      </c>
+      <c r="C1390" s="12" t="s">
+        <v>198</v>
+      </c>
+      <c r="D1390" s="1" t="s">
+        <v>3938</v>
+      </c>
+      <c r="E1390" s="14" t="s">
+        <v>3941</v>
+      </c>
+      <c r="F1390" s="14" t="s">
+        <v>3962</v>
+      </c>
+    </row>
+    <row r="1391" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.9">
+      <c r="A1391" s="10" t="s">
+        <v>1325</v>
+      </c>
+      <c r="B1391" s="11" t="s">
+        <v>1326</v>
+      </c>
+      <c r="C1391" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1391" s="1" t="s">
+        <v>3938</v>
+      </c>
+      <c r="E1391" s="14" t="s">
+        <v>3942</v>
+      </c>
+      <c r="F1391" s="14" t="s">
+        <v>3962</v>
+      </c>
+    </row>
+    <row r="1392" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.9">
+      <c r="A1392" s="10" t="s">
+        <v>3943</v>
+      </c>
+      <c r="B1392" s="11" t="s">
+        <v>3944</v>
+      </c>
+      <c r="C1392" s="12" t="s">
+        <v>198</v>
+      </c>
+      <c r="D1392" s="1" t="s">
+        <v>3938</v>
+      </c>
+      <c r="E1392" s="14" t="s">
+        <v>3945</v>
+      </c>
+      <c r="F1392" s="14" t="s">
+        <v>3962</v>
+      </c>
+    </row>
+    <row r="1393" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.9">
+      <c r="A1393" s="10" t="s">
+        <v>3946</v>
+      </c>
+      <c r="B1393" s="11" t="s">
+        <v>3947</v>
+      </c>
+      <c r="C1393" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1393" s="1" t="s">
+        <v>3938</v>
+      </c>
+      <c r="E1393" s="14" t="s">
+        <v>3948</v>
+      </c>
+      <c r="F1393" s="14" t="s">
+        <v>3962</v>
+      </c>
+    </row>
+    <row r="1394" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.9">
+      <c r="A1394" s="10" t="s">
+        <v>3949</v>
+      </c>
+      <c r="B1394" s="11" t="s">
+        <v>3950</v>
+      </c>
+      <c r="C1394" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1394" s="1" t="s">
+        <v>3938</v>
+      </c>
+      <c r="E1394" s="14" t="s">
+        <v>3951</v>
+      </c>
+      <c r="F1394" s="14" t="s">
+        <v>3962</v>
+      </c>
+    </row>
+    <row r="1395" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.9">
+      <c r="A1395" s="10" t="s">
+        <v>3952</v>
+      </c>
+      <c r="B1395" s="11" t="s">
+        <v>3953</v>
+      </c>
+      <c r="C1395" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1395" s="1" t="s">
+        <v>3938</v>
+      </c>
+      <c r="E1395" s="14" t="s">
+        <v>3954</v>
+      </c>
+      <c r="F1395" s="14" t="s">
+        <v>3962</v>
+      </c>
+    </row>
+    <row r="1396" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.9">
+      <c r="A1396" s="10" t="s">
+        <v>3955</v>
+      </c>
+      <c r="B1396" s="11" t="s">
+        <v>3956</v>
+      </c>
+      <c r="C1396" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1396" s="1" t="s">
+        <v>3938</v>
+      </c>
+      <c r="E1396" s="14" t="s">
+        <v>3957</v>
+      </c>
+      <c r="F1396" s="14" t="s">
+        <v>3962</v>
+      </c>
+    </row>
+    <row r="1397" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.9">
+      <c r="A1397" s="10" t="s">
+        <v>3169</v>
+      </c>
+      <c r="B1397" s="11" t="s">
+        <v>3170</v>
+      </c>
+      <c r="C1397" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1397" s="1" t="s">
+        <v>3938</v>
+      </c>
+      <c r="E1397" s="14" t="s">
+        <v>3958</v>
+      </c>
+      <c r="F1397" s="14" t="s">
+        <v>3962</v>
+      </c>
+    </row>
+    <row r="1398" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.9">
+      <c r="A1398" s="10" t="s">
+        <v>3959</v>
+      </c>
+      <c r="B1398" s="11" t="s">
+        <v>3960</v>
+      </c>
+      <c r="C1398" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1398" s="1" t="s">
+        <v>3938</v>
+      </c>
+      <c r="E1398" s="14" t="s">
+        <v>3961</v>
+      </c>
+      <c r="F1398" s="14" t="s">
+        <v>3962</v>
+      </c>
     </row>
   </sheetData>
   <dataValidations count="3">
